--- a/Network 1.0.xlsx
+++ b/Network 1.0.xlsx
@@ -1,18 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbfaw\OneDrive\Documents\cse300\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47726779-089F-486F-90DC-FDF4EE302415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Network" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Network Rsc" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Network" sheetId="1" r:id="rId1"/>
+    <sheet name="Network Rsc" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -23,352 +39,335 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
   <si>
-    <t xml:space="preserve">(111) 111-1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email/Phone/Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month/Day/Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y/N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method of Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of last Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Last interview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What was discussed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Interviews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referrals/Assignments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thank You Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job application status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Future Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relationship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F&amp;F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fawcett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208-206-0131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bryce.fawcett@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">804-397-5274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">richelle.fawcett@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bishop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">602-758-4447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dalin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hansen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208-403-9823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grandfather</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208-403-5939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gillett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(480) 236-8505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gillettt@byui.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480-266-0433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gillettb@byui.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flagstad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(208) 794-1263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flagstadk@byui.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parkerja@byui.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valorie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parkerv@byui.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schoendorfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215) 680-0312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schoendorferf@byui.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lynn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215) 280-4711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schoendorferl@byui.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(703) 598-2489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">masonj@byui.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">masonl@byui.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(206) 941-3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">millardr@byui.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">millardp@byui.edu</t>
+    <t>(111) 111-1111</t>
+  </si>
+  <si>
+    <t>Email/Phone/Text</t>
+  </si>
+  <si>
+    <t>Month/Day/Year</t>
+  </si>
+  <si>
+    <t>Y/N</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Method of Contact</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Date of last Contact</t>
+  </si>
+  <si>
+    <t>Date of Last interview</t>
+  </si>
+  <si>
+    <t>What was discussed?</t>
+  </si>
+  <si>
+    <t>Number of Interviews</t>
+  </si>
+  <si>
+    <t>Referrals/Assignments</t>
+  </si>
+  <si>
+    <t>Thank You Note</t>
+  </si>
+  <si>
+    <t>Job application status</t>
+  </si>
+  <si>
+    <t>Date of follow-up</t>
+  </si>
+  <si>
+    <t>Future Plan</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>F&amp;F</t>
+  </si>
+  <si>
+    <t>Bryce</t>
+  </si>
+  <si>
+    <t>Fawcett</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>208-206-0131</t>
+  </si>
+  <si>
+    <t>bryce.fawcett@gmail.com</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Richelle</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>804-397-5274</t>
+  </si>
+  <si>
+    <t>richelle.fawcett@gmail.com</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Wolfe</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>602-758-4447</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Dalin</t>
+  </si>
+  <si>
+    <t>Hansen</t>
+  </si>
+  <si>
+    <t>Uncle</t>
+  </si>
+  <si>
+    <t>208-403-9823</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>Grandfather</t>
+  </si>
+  <si>
+    <t>208-403-5939</t>
+  </si>
+  <si>
+    <t>ISM</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Gillett</t>
+  </si>
+  <si>
+    <t>(480) 236-8505</t>
+  </si>
+  <si>
+    <t>gillettt@byui.edu</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>480-266-0433</t>
+  </si>
+  <si>
+    <t>gillettb@byui.edu</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Flagstad</t>
+  </si>
+  <si>
+    <t>(208) 794-1263</t>
+  </si>
+  <si>
+    <t>flagstadk@byui.edu</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>parkerja@byui.edu</t>
+  </si>
+  <si>
+    <t>Valorie</t>
+  </si>
+  <si>
+    <t>parkerv@byui.edu</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Schoendorfer</t>
+  </si>
+  <si>
+    <t>(215) 680-0312</t>
+  </si>
+  <si>
+    <t>schoendorferf@byui.edu</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>(215) 280-4711</t>
+  </si>
+  <si>
+    <t>schoendorferl@byui.edu</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>(703) 598-2489</t>
+  </si>
+  <si>
+    <t>masonj@byui.edu</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>masonl@byui.edu</t>
+  </si>
+  <si>
+    <t>Russ</t>
+  </si>
+  <si>
+    <t>Millard</t>
+  </si>
+  <si>
+    <t>(206) 941-3000</t>
+  </si>
+  <si>
+    <t>millardr@byui.edu</t>
+  </si>
+  <si>
+    <t>Pam</t>
+  </si>
+  <si>
+    <t>millardp@byui.edu</t>
   </si>
   <si>
     <t xml:space="preserve">Christina </t>
   </si>
   <si>
-    <t xml:space="preserve">Peoples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teacher/Club Leader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(480) 390-7124</t>
+    <t>Peoples</t>
+  </si>
+  <si>
+    <t>Teacher/Club Leader</t>
+  </si>
+  <si>
+    <t>(480) 390-7124</t>
   </si>
   <si>
     <t xml:space="preserve">Adam </t>
   </si>
   <si>
-    <t xml:space="preserve">Thompson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">athompson@heritageacademyaz.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortensen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(602) 725-2846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LaCroix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(602) 690-7471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jrussell@heritageacademyaz.com</t>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>athompson@heritageacademyaz.com</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Mortensen</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>(602) 725-2846</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>LaCroix</t>
+  </si>
+  <si>
+    <t>Professional Contact</t>
+  </si>
+  <si>
+    <t>(602) 690-7471</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>jrussell@heritageacademyaz.com</t>
   </si>
   <si>
     <t xml:space="preserve">JC </t>
   </si>
   <si>
-    <t xml:space="preserve">Cox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(480) 452-5713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comerford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comerfordcolin@yahoo.com</t>
+    <t>Cox</t>
+  </si>
+  <si>
+    <t>(480) 452-5713</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Comerford</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>comerfordcolin@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###&quot;) &quot;###\-####"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###&quot;) &quot;###\-####"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -378,7 +377,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -395,217 +394,101 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7999"/>
+        <fgColor theme="3" tint="0.79989013336588644"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF548235"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD6DCE5"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0563C1"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -664,13 +547,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -686,11 +585,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -723,12 +628,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect l="87921" t="0" r="436" b="0"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="87921" r="436"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -761,12 +672,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3" descr=""/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:srcRect l="0" t="260" r="467" b="84839"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="260" r="467" b="84839"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -788,7 +705,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -804,11 +721,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr=""/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -830,54 +753,54 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -909,7 +832,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -933,7 +856,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -993,51 +916,52 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:S48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="25.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="33.14"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="16384" min="20" style="0" width="9.14"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" customWidth="1"/>
+    <col min="18" max="18" width="33.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -1068,7 +992,7 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
         <v>4</v>
@@ -1119,8 +1043,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="10" t="n">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" s="10"/>
@@ -1141,8 +1065,8 @@
       <c r="R8" s="11"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="n">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="3"/>
@@ -1162,8 +1086,8 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="10" t="n">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
       <c r="C10" s="10"/>
@@ -1183,8 +1107,8 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="n">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="3"/>
@@ -1204,8 +1128,8 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="10" t="n">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
         <v>5</v>
       </c>
       <c r="C12" s="10"/>
@@ -1225,8 +1149,8 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="n">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
       <c r="C13" s="3"/>
@@ -1246,8 +1170,8 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="10" t="n">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
         <v>7</v>
       </c>
       <c r="C14" s="10"/>
@@ -1267,8 +1191,8 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="n">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
         <v>8</v>
       </c>
       <c r="C15" s="3"/>
@@ -1288,8 +1212,8 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="10" t="n">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
         <v>9</v>
       </c>
       <c r="C16" s="10"/>
@@ -1309,8 +1233,8 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="n">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
         <v>10</v>
       </c>
       <c r="C17" s="3"/>
@@ -1330,8 +1254,8 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10" t="n">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
         <v>11</v>
       </c>
       <c r="C18" s="10"/>
@@ -1351,8 +1275,8 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3" t="n">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
         <v>12</v>
       </c>
       <c r="C19" s="3"/>
@@ -1372,8 +1296,8 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="10" t="n">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
         <v>13</v>
       </c>
       <c r="C20" s="10"/>
@@ -1393,8 +1317,8 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="n">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="C21" s="3"/>
@@ -1414,8 +1338,8 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="10" t="n">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
         <v>15</v>
       </c>
       <c r="C22" s="10"/>
@@ -1435,8 +1359,8 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="n">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
         <v>16</v>
       </c>
       <c r="C23" s="3"/>
@@ -1456,8 +1380,8 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="10" t="n">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
         <v>17</v>
       </c>
       <c r="C24" s="10"/>
@@ -1477,8 +1401,8 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3" t="n">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
         <v>18</v>
       </c>
       <c r="C25" s="3"/>
@@ -1498,8 +1422,8 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="10" t="n">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
         <v>19</v>
       </c>
       <c r="C26" s="10"/>
@@ -1519,8 +1443,8 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3" t="n">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
         <v>20</v>
       </c>
       <c r="C27" s="3"/>
@@ -1540,8 +1464,8 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="10" t="n">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
         <v>21</v>
       </c>
       <c r="C28" s="10"/>
@@ -1561,8 +1485,8 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3" t="n">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
         <v>22</v>
       </c>
       <c r="C29" s="3"/>
@@ -1582,8 +1506,8 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="10" t="n">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
         <v>23</v>
       </c>
       <c r="C30" s="10"/>
@@ -1603,8 +1527,8 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3" t="n">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
         <v>24</v>
       </c>
       <c r="C31" s="3"/>
@@ -1624,8 +1548,8 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="10" t="n">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
         <v>25</v>
       </c>
       <c r="C32" s="10"/>
@@ -1645,8 +1569,8 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3" t="n">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
         <v>26</v>
       </c>
       <c r="C33" s="3"/>
@@ -1666,8 +1590,8 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="10" t="n">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="10">
         <v>27</v>
       </c>
       <c r="C34" s="10"/>
@@ -1687,8 +1611,8 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3" t="n">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
         <v>28</v>
       </c>
       <c r="C35" s="3"/>
@@ -1708,8 +1632,8 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="10" t="n">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="10">
         <v>29</v>
       </c>
       <c r="C36" s="10"/>
@@ -1729,8 +1653,8 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3" t="n">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
         <v>30</v>
       </c>
       <c r="C37" s="3"/>
@@ -1750,8 +1674,8 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="10" t="n">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
         <v>31</v>
       </c>
       <c r="C38" s="10"/>
@@ -1771,8 +1695,8 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="n">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
         <v>32</v>
       </c>
       <c r="C39" s="3"/>
@@ -1792,8 +1716,8 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="10" t="n">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="10">
         <v>33</v>
       </c>
       <c r="C40" s="10"/>
@@ -1813,8 +1737,8 @@
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3" t="n">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
         <v>34</v>
       </c>
       <c r="C41" s="3"/>
@@ -1834,8 +1758,8 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="10" t="n">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="10">
         <v>35</v>
       </c>
       <c r="C42" s="10"/>
@@ -1855,8 +1779,8 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3" t="n">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
         <v>36</v>
       </c>
       <c r="C43" s="3"/>
@@ -1876,8 +1800,8 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="10" t="n">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="10">
         <v>37</v>
       </c>
       <c r="C44" s="10"/>
@@ -1897,8 +1821,8 @@
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3" t="n">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
         <v>38</v>
       </c>
       <c r="C45" s="3"/>
@@ -1918,8 +1842,8 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="10" t="n">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="10">
         <v>39</v>
       </c>
       <c r="C46" s="10"/>
@@ -1939,8 +1863,8 @@
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3" t="n">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
         <v>40</v>
       </c>
       <c r="C47" s="3"/>
@@ -1960,76 +1884,68 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G8:G47" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G47" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Text,Phone,Email,LinkedIn,Other"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O8:O47" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O47" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Y,N"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.71"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="17"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="5" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
         <v>4</v>
@@ -2059,11 +1975,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -2072,7 +1988,7 @@
       <c r="D8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -2081,15 +1997,15 @@
       <c r="G8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2098,24 +2014,24 @@
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -2124,7 +2040,7 @@
       <c r="D10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -2133,15 +2049,15 @@
       <c r="G10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2150,22 +2066,22 @@
       <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="19" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="10">
         <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -2174,23 +2090,23 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="3" t="n">
-        <f aca="false">B12+1</f>
+      <c r="B13" s="3">
+        <f t="shared" ref="B13:B47" si="0">B12+1</f>
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2199,21 +2115,21 @@
       <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="3" t="n">
-        <f aca="false">B13+1</f>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -2222,44 +2138,44 @@
       <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3" t="n">
-        <f aca="false">B14+1</f>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="19" t="s">
         <v>54</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="n">
-        <f aca="false">B15+1</f>
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -2268,21 +2184,21 @@
       <c r="D16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="3" t="n">
-        <f aca="false">B16+1</f>
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2291,21 +2207,21 @@
       <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="5"/>
       <c r="G17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="3" t="n">
-        <f aca="false">B17+1</f>
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -2314,21 +2230,21 @@
       <c r="D18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="n">
-        <f aca="false">B18+1</f>
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2337,21 +2253,21 @@
       <c r="D19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3" t="n">
-        <f aca="false">B19+1</f>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -2360,21 +2276,21 @@
       <c r="D20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="11" t="s">
         <v>70</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="3" t="n">
-        <f aca="false">B20+1</f>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -2383,21 +2299,21 @@
       <c r="D21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="3" t="n">
-        <f aca="false">B21+1</f>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -2406,21 +2322,21 @@
       <c r="D22" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="n">
-        <f aca="false">B22+1</f>
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2429,18 +2345,18 @@
       <c r="D23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="n">
-        <f aca="false">B23+1</f>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -2449,7 +2365,7 @@
       <c r="D24" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F24" s="12" t="s">
@@ -2460,9 +2376,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3" t="n">
-        <f aca="false">B24+1</f>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2471,7 +2387,7 @@
       <c r="D25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F25" s="5"/>
@@ -2482,9 +2398,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3" t="n">
-        <f aca="false">B25+1</f>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -2493,20 +2409,20 @@
       <c r="D26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>89</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>90</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3" t="n">
-        <f aca="false">B26+1</f>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2515,20 +2431,20 @@
       <c r="D27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>93</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>94</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3" t="n">
-        <f aca="false">B27+1</f>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -2537,20 +2453,20 @@
       <c r="D28" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3" t="n">
-        <f aca="false">B28+1</f>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2559,20 +2475,20 @@
       <c r="D29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>89</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3" t="n">
-        <f aca="false">B29+1</f>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -2581,525 +2497,253 @@
       <c r="D30" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>103</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3" t="n">
-        <f aca="false">B30+1</f>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="5"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3" t="n">
-        <f aca="false">B31+1</f>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="18"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="12"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3" t="n">
-        <f aca="false">B32+1</f>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="5"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3" t="n">
-        <f aca="false">B33+1</f>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="18"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="12"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3" t="n">
-        <f aca="false">B34+1</f>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="5"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3" t="n">
-        <f aca="false">B35+1</f>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="18"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="12"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3" t="n">
-        <f aca="false">B36+1</f>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="5"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3" t="n">
-        <f aca="false">B37+1</f>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="18"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="12"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="19"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="n">
-        <f aca="false">B38+1</f>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="16"/>
       <c r="F39" s="5"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="n">
-        <f aca="false">B39+1</f>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="18"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="12"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="19"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3" t="n">
-        <f aca="false">B40+1</f>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="5"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3" t="n">
-        <f aca="false">B41+1</f>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="18"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="12"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3" t="n">
-        <f aca="false">B42+1</f>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="17"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="5"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3" t="n">
-        <f aca="false">B43+1</f>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="18"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="12"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="19"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3" t="n">
-        <f aca="false">B44+1</f>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="17"/>
+      <c r="E45" s="16"/>
       <c r="F45" s="5"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3" t="n">
-        <f aca="false">B45+1</f>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="18"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="12"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="19"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3" t="n">
-        <f aca="false">B46+1</f>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="17"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="5"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="21"/>
+      <c r="H47" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H8:H23 H26:H47" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H23 H26:H47" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Text,Phone,Email,LinkedIn,Other"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" display="bryce.fawcett@gmail.com"/>
-    <hyperlink ref="G9" r:id="rId2" display="richelle.fawcett@gmail.com"/>
-    <hyperlink ref="F13" r:id="rId3" display="(480) 236-8505"/>
-    <hyperlink ref="G13" r:id="rId4" display="gillettt@byui.edu"/>
-    <hyperlink ref="G14" r:id="rId5" display="gillettb@byui.edu"/>
-    <hyperlink ref="F15" r:id="rId6" display="(208) 794-1263"/>
-    <hyperlink ref="G15" r:id="rId7" display="flagstadk@byui.edu"/>
-    <hyperlink ref="G16" r:id="rId8" display="parkerja@byui.edu"/>
-    <hyperlink ref="F18" r:id="rId9" display="(215) 680-0312"/>
-    <hyperlink ref="G18" r:id="rId10" display="schoendorferf@byui.edu"/>
-    <hyperlink ref="F19" r:id="rId11" display="(215) 280-4711"/>
-    <hyperlink ref="G19" r:id="rId12" display="schoendorferl@byui.edu"/>
-    <hyperlink ref="F20" r:id="rId13" display="(703) 598-2489"/>
-    <hyperlink ref="G20" r:id="rId14" display="masonj@byui.edu"/>
-    <hyperlink ref="G21" r:id="rId15" display="masonl@byui.edu"/>
-    <hyperlink ref="F22" r:id="rId16" display="(206) 941-3000"/>
-    <hyperlink ref="G22" r:id="rId17" display="millardr@byui.edu"/>
-    <hyperlink ref="G23" r:id="rId18" display="millardp@byui.edu"/>
-    <hyperlink ref="G25" r:id="rId19" display="athompson@heritageacademyaz.com"/>
-    <hyperlink ref="G28" r:id="rId20" display="jrussell@heritageacademyaz.com"/>
-    <hyperlink ref="G30" r:id="rId21" display="comerfordcolin@yahoo.com"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G13" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G14" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F15" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="G16" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="F18" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="G18" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="G19" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="F20" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="G20" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="G21" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="F22" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="G22" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="G23" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G25" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="G28" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="G30" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId22"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A5EC2F65AE6FF4B94F15E1B13D0FB05" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13aecd974c3bcf9bc12be80b390e7c85">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e08e2f41-3afc-453e-8484-386d79963b73" xmlns:ns3="36043927-bade-4f2e-8132-b7708c18b1e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00cad41df1e9df714f9d65e01f5175b7" ns2:_="" ns3:_="">
-    <xsd:import namespace="e08e2f41-3afc-453e-8484-386d79963b73"/>
-    <xsd:import namespace="36043927-bade-4f2e-8132-b7708c18b1e0"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e08e2f41-3afc-453e-8484-386d79963b73" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="461ed3f3-80a3-4625-a339-da1aff4a8791" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="36043927-bade-4f2e-8132-b7708c18b1e0" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="19" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{588ca199-be88-4b09-9b8e-2e49b0269f4d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="36043927-bade-4f2e-8132-b7708c18b1e0">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE01AA14-0DE3-410F-BE0F-F027F102B744}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D57485-21EB-4728-ADFA-15E030417DC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e08e2f41-3afc-453e-8484-386d79963b73"/>
-    <ds:schemaRef ds:uri="36043927-bade-4f2e-8132-b7708c18b1e0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>